--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="Q10" sqref="Q10:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
